--- a/biology/Biochimie/Structure_quaternaire/Structure_quaternaire.xlsx
+++ b/biology/Biochimie/Structure_quaternaire/Structure_quaternaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure quaternaire d'une protéine multimérique est la manière dont sont agencées les différentes chaînes protéiques, ou sous-unités, à l'état natif les unes par rapport aux autres. Ce qualificatif ne s'applique qu'aux protéines multimériques, c'est-à-dire ne contenant pas qu'une seule sous unité. Ainsi on distingue les dimères (deux sous-unités), les trimères (trois sous-unités), les tétramères (quatre sous-unités), etc.
 De manière générale, la structure quaternaire confère à la protéine sa fonction, mais il existe des exemples de protéines actives en dehors de leur complexe quaternaire. L'agencement des sous-unités peut conférer au complexe quaternaire un axe ou point de symétrie, mais ce n'est pas nécessaire.
